--- a/data/context-variables/TEAM-Kenya_scenario_data.xlsx
+++ b/data/context-variables/TEAM-Kenya_scenario_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cenv0795\OneDrive - Nexus365\Code\CCG\TEAM-Kenya\data\context variables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekb15182\LocalCodeFolder\TEAM-Kenya\data\context-variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{BEB2CCF5-5CB5-4CDB-A637-4024DC2A6A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{7757D709-CD8D-44D8-A9F0-03EF5F196477}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37222DB-6720-4505-98AA-F222F921D0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495" activeTab="2" xr2:uid="{06128B5B-E924-4F4E-9403-465D7CCC11D7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{06128B5B-E924-4F4E-9403-465D7CCC11D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Demograph95" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,21 @@
     <sheet name="Data sources" sheetId="3" r:id="rId5"/>
     <sheet name="Assumption" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -688,15 +699,15 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>7</v>
       </c>
@@ -808,7 +819,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>9</v>
       </c>
@@ -875,17 +886,17 @@
   <dimension ref="A1:AK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -998,7 +1009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1112,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1228,7 +1239,7 @@
         <v>2.658758E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>-5.8557989999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1460,7 +1471,7 @@
         <v>-2.4604040000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1576,7 +1587,7 @@
         <v>-5.4738439999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1692,7 +1703,7 @@
         <v>-4.9173429999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1808,7 +1819,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1924,7 +1935,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -2156,7 +2167,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2274,7 +2285,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2392,7 +2403,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2510,7 +2521,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2628,7 +2639,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -2747,7 +2758,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2867,7 +2878,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -2987,7 +2998,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -3107,7 +3118,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -3227,7 +3238,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -3347,7 +3358,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -3467,7 +3478,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -3587,7 +3598,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -3707,7 +3718,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -3827,7 +3838,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -3947,7 +3958,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -4067,7 +4078,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -4187,7 +4198,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -4307,7 +4318,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -4427,7 +4438,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -4547,7 +4558,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -4667,7 +4678,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -4787,7 +4798,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -4907,7 +4918,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -5027,7 +5038,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -5147,7 +5158,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -5267,7 +5278,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -5387,7 +5398,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -5507,7 +5518,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -5626,7 +5637,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -5746,7 +5757,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -5866,7 +5877,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>1</v>
       </c>
@@ -5986,7 +5997,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -6106,7 +6117,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -6226,7 +6237,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>1</v>
       </c>
@@ -6346,7 +6357,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>1</v>
       </c>
@@ -6466,7 +6477,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>1</v>
       </c>
@@ -6586,7 +6597,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <v>1</v>
       </c>
@@ -6706,7 +6717,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
         <v>1</v>
       </c>
@@ -6826,7 +6837,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>1</v>
       </c>
@@ -6946,7 +6957,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
         <v>1</v>
       </c>
@@ -7066,7 +7077,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
         <v>1</v>
       </c>
@@ -7186,7 +7197,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -7306,7 +7317,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
         <v>1</v>
       </c>
@@ -7426,7 +7437,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
         <v>1</v>
       </c>
@@ -7546,7 +7557,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
         <v>1</v>
       </c>
@@ -7666,7 +7677,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
         <v>1</v>
       </c>
@@ -7786,7 +7797,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -7906,7 +7917,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
         <v>1</v>
       </c>
@@ -8026,7 +8037,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
         <v>1</v>
       </c>
@@ -8146,7 +8157,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -8266,7 +8277,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A63" s="4">
         <v>1</v>
       </c>
@@ -8386,7 +8397,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A64" s="4">
         <v>1</v>
       </c>
@@ -8506,7 +8517,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
         <v>1</v>
       </c>
@@ -8626,7 +8637,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A66" s="4">
         <v>1</v>
       </c>
@@ -8746,7 +8757,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A67" s="4">
         <v>1</v>
       </c>
@@ -8866,7 +8877,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A68" s="4">
         <v>1</v>
       </c>
@@ -8986,7 +8997,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A69" s="4">
         <v>1</v>
       </c>
@@ -9106,7 +9117,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A70" s="4">
         <v>1</v>
       </c>
@@ -9226,7 +9237,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A71" s="4">
         <v>1</v>
       </c>
@@ -9346,7 +9357,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -9466,7 +9477,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A73" s="4">
         <v>1</v>
       </c>
@@ -9586,7 +9597,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A74" s="4">
         <v>1</v>
       </c>
@@ -9706,7 +9717,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A75" s="4">
         <v>1</v>
       </c>
@@ -9826,7 +9837,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -9946,7 +9957,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A77" s="4">
         <v>1</v>
       </c>
@@ -10066,7 +10077,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
         <v>1</v>
       </c>
@@ -10186,7 +10197,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A79" s="4">
         <v>1</v>
       </c>
@@ -10306,7 +10317,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A80" s="4">
         <v>1</v>
       </c>
@@ -10426,7 +10437,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A81" s="4">
         <v>1</v>
       </c>
@@ -10546,7 +10557,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A82" s="4">
         <v>1</v>
       </c>
@@ -10666,7 +10677,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A83" s="4">
         <v>1</v>
       </c>
@@ -10786,7 +10797,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A84" s="4">
         <v>1</v>
       </c>
@@ -10906,7 +10917,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A85" s="4">
         <v>1</v>
       </c>
@@ -11026,7 +11037,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A86" s="4">
         <v>1</v>
       </c>
@@ -11146,7 +11157,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A87" s="4">
         <v>1</v>
       </c>
@@ -11266,7 +11277,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A88" s="4">
         <v>1</v>
       </c>
@@ -11386,7 +11397,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A89" s="4">
         <v>1</v>
       </c>
@@ -11506,7 +11517,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A90" s="4">
         <v>1</v>
       </c>
@@ -11636,17 +11647,17 @@
   <dimension ref="A1:AK90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K40" sqref="K1:K40"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -11759,7 +11770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -11873,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -11990,7 +12001,7 @@
         <v>2.658758E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -12107,7 +12118,7 @@
         <v>-5.8557989999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -12223,7 +12234,7 @@
         <v>-2.4604040000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -12340,7 +12351,7 @@
         <v>-5.4738439999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -12457,7 +12468,7 @@
         <v>-4.9173429999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -12574,7 +12585,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -12691,7 +12702,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -12807,7 +12818,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -12924,7 +12935,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -13043,7 +13054,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -13162,7 +13173,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -13281,7 +13292,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -13399,7 +13410,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -13519,7 +13530,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -13639,7 +13650,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -13759,7 +13770,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -13879,7 +13890,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -13998,7 +14009,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -14118,7 +14129,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -14238,7 +14249,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -14358,7 +14369,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -14478,7 +14489,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -14597,7 +14608,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -14717,7 +14728,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -14837,7 +14848,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -14957,7 +14968,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -15077,7 +15088,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -15196,7 +15207,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -15316,7 +15327,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -15436,7 +15447,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -15556,7 +15567,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -15676,7 +15687,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -15795,7 +15806,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -15915,7 +15926,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -16035,7 +16046,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -16155,7 +16166,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -16275,7 +16286,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -16394,7 +16405,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -16514,7 +16525,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -16634,7 +16645,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>1</v>
       </c>
@@ -16754,7 +16765,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -16874,7 +16885,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -16994,7 +17005,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>1</v>
       </c>
@@ -17114,7 +17125,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>1</v>
       </c>
@@ -17234,7 +17245,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>1</v>
       </c>
@@ -17354,7 +17365,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <v>1</v>
       </c>
@@ -17474,7 +17485,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
         <v>1</v>
       </c>
@@ -17594,7 +17605,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>1</v>
       </c>
@@ -17714,7 +17725,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
         <v>1</v>
       </c>
@@ -17834,7 +17845,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
         <v>1</v>
       </c>
@@ -17954,7 +17965,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -18074,7 +18085,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
         <v>1</v>
       </c>
@@ -18194,7 +18205,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
         <v>1</v>
       </c>
@@ -18314,7 +18325,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
         <v>1</v>
       </c>
@@ -18434,7 +18445,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
         <v>1</v>
       </c>
@@ -18554,7 +18565,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -18674,7 +18685,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
         <v>1</v>
       </c>
@@ -18794,7 +18805,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
         <v>1</v>
       </c>
@@ -18914,7 +18925,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -19034,7 +19045,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A63" s="4">
         <v>1</v>
       </c>
@@ -19154,7 +19165,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A64" s="4">
         <v>1</v>
       </c>
@@ -19274,7 +19285,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
         <v>1</v>
       </c>
@@ -19394,7 +19405,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A66" s="4">
         <v>1</v>
       </c>
@@ -19514,7 +19525,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A67" s="4">
         <v>1</v>
       </c>
@@ -19634,7 +19645,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A68" s="4">
         <v>1</v>
       </c>
@@ -19754,7 +19765,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A69" s="4">
         <v>1</v>
       </c>
@@ -19874,7 +19885,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A70" s="4">
         <v>1</v>
       </c>
@@ -19994,7 +20005,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A71" s="4">
         <v>1</v>
       </c>
@@ -20114,7 +20125,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -20234,7 +20245,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A73" s="4">
         <v>1</v>
       </c>
@@ -20354,7 +20365,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A74" s="4">
         <v>1</v>
       </c>
@@ -20474,7 +20485,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A75" s="4">
         <v>1</v>
       </c>
@@ -20594,7 +20605,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -20714,7 +20725,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A77" s="4">
         <v>1</v>
       </c>
@@ -20834,7 +20845,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
         <v>1</v>
       </c>
@@ -20954,7 +20965,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A79" s="4">
         <v>1</v>
       </c>
@@ -21074,7 +21085,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A80" s="4">
         <v>1</v>
       </c>
@@ -21194,7 +21205,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A81" s="4">
         <v>1</v>
       </c>
@@ -21314,7 +21325,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A82" s="4">
         <v>1</v>
       </c>
@@ -21434,7 +21445,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A83" s="4">
         <v>1</v>
       </c>
@@ -21554,7 +21565,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A84" s="4">
         <v>1</v>
       </c>
@@ -21674,7 +21685,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A85" s="4">
         <v>1</v>
       </c>
@@ -21794,7 +21805,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A86" s="4">
         <v>1</v>
       </c>
@@ -21914,7 +21925,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A87" s="4">
         <v>1</v>
       </c>
@@ -22034,7 +22045,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A88" s="4">
         <v>1</v>
       </c>
@@ -22154,7 +22165,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A89" s="4">
         <v>1</v>
       </c>
@@ -22274,7 +22285,7 @@
         <v>-5.2376180000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A90" s="4">
         <v>1</v>
       </c>
@@ -22407,12 +22418,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>460500000</v>
       </c>
@@ -22421,7 +22432,7 @@
         <v>46050000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>531150000</v>
       </c>
@@ -22430,7 +22441,7 @@
         <v>53115000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>601800000</v>
       </c>
@@ -22439,7 +22450,7 @@
         <v>60180000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>672450000</v>
       </c>
@@ -22448,7 +22459,7 @@
         <v>67245000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>743100000</v>
       </c>
@@ -22457,7 +22468,7 @@
         <v>74310000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>813750000</v>
       </c>
@@ -22466,7 +22477,7 @@
         <v>81375000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>884400000</v>
       </c>
@@ -22475,7 +22486,7 @@
         <v>88440000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>955050000</v>
       </c>
@@ -22494,16 +22505,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -22511,7 +22522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -22519,7 +22530,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -22527,7 +22538,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -22535,7 +22546,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -22553,17 +22564,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -22574,7 +22585,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22585,7 +22596,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22596,7 +22607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="77.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22613,20 +22624,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5845f703-aefd-4152-9ce7-4004e1ab5465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5845f703-aefd-4152-9ce7-4004e1ab5465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22865,6 +22876,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45097D82-6B73-4C94-AF11-68FF1F995ED2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C813FCBA-80DC-4AFD-97C8-DD822BCC8264}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -22877,14 +22896,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="ec776a2e-aa90-42fe-8c76-cfe3819c2a73"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45097D82-6B73-4C94-AF11-68FF1F995ED2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
